--- a/Testing/Reporte de Bugs.xlsx
+++ b/Testing/Reporte de Bugs.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rNeZeeLoteezhUlGaFe/T/8KeRfpwd6MtUpyRGwGVPc="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
   <si>
     <t>id de Bug:</t>
   </si>
@@ -19,84 +24,75 @@
     <t>titulo:</t>
   </si>
   <si>
-    <t>Credenciales falsas en el registro</t>
+    <t>Molestias a la hora de ingresar los datos en el Login</t>
   </si>
   <si>
     <t>Descripción (resultado esperado y resultado obtenido):</t>
   </si>
   <si>
-    <t>A la hora de poner mis datos, si yo ingreso un gmail inexistente debería saltar un error que diga "El mail o correo no existe". En cambio me deja ingresar cualquier cosa y me lo toma como valido, lo mismo sucede con la fecha de nacimiento al ingresarla si yo pongo que naci el 1 de julio de 2025 deberia impedirme entrar, y solo tener la posibilidad de registrar a usuarios que cuenten con 18 años al dia de la fecha, por ejemplo un usuario que haya  nacido el 23 de marzo de 2007</t>
+    <t>Debes en cuando, a la hora de entrar al login y querer ingresar mis datos, el pie de la app me tapa los huecos de Email y Contraseña</t>
   </si>
   <si>
     <t>Pasos para reproducir + datos</t>
   </si>
   <si>
-    <t>Ingresar Nombre, Email (Cualquiera, siempre y cuando sepamos que no existe), Contraseña, Fecha de nacimiento (No hay una fecha en concreto, ya que deja con todas)</t>
+    <t>1- Entrar a la pantalla de login</t>
   </si>
   <si>
     <t>Severidad:</t>
   </si>
   <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>No envio de Mail para recuperar la contraseña</t>
+  </si>
+  <si>
+    <t>Debería llegar un mail al correo que ingresas cuando entrar a "¿Olvidaste tu contraseña?". En cambio no sucede nada, y te redirecciona a la pantalla de Login</t>
+  </si>
+  <si>
+    <t>1- Entrar a la pantalla de login 2- apretar "¿Olvidaste tu contraseña?" 3- ingresar maximoprueba@gmail.com, contraseña: 123456</t>
+  </si>
+  <si>
+    <t>Publicación</t>
+  </si>
+  <si>
+    <t>A la hora de entrar a mi cuenta desde el login, debería poder crear una publicación desde la pagina de home. En cambio no existe la opción</t>
+  </si>
+  <si>
+    <t>Una vez ingreso con mi cuenta, debería tener alguna opción para crear una publicacíon</t>
+  </si>
+  <si>
+    <t>Ingreso a Perfil</t>
+  </si>
+  <si>
+    <t>Desde el home yo quiero ver mi perfil apretando en la parte superior izquierda. En cambio al apretar en el icono no sucede nada, o dependiendo del intento se buguea la barra del encabezado y no aparece la opción</t>
+  </si>
+  <si>
+    <t>Ingresar al home, apretar en la parte superior derecha el icono de la personita</t>
+  </si>
+  <si>
+    <t>Comentar una publicación</t>
+  </si>
+  <si>
+    <t>Una vez que apretamos en el goblito de mensaje deberia abrirse el teclado o permitirnos comentar, en cambio cuando apretamos no sucede nada</t>
+  </si>
+  <si>
+    <t>En la pantalla de Home, vemos una publicacón y apretamos en el globito de mensaje</t>
+  </si>
+  <si>
+    <t>Etiquetar a un usuario</t>
+  </si>
+  <si>
+    <t>En la pantalla de Home cuando apreto en la etiqueta debería al apretar poder etiquetar otro usuario. En cambio cuando apreto no sucede nada</t>
+  </si>
+  <si>
+    <t>Entrar en la pantalla home, buscar una publicación y apretar en la etiqueta</t>
+  </si>
+  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Molestias a la hora de ingresar los datos en el Login</t>
-  </si>
-  <si>
-    <t>Debes en cuando, a la hora de entrar al login y querer ingresar mis datos, el pie de la app me tapa los huecos de Email y Contraseña</t>
-  </si>
-  <si>
-    <t>Entrar a la pantalla de login, ya sea desde "Ya estoy registrado" o registrandose</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>No envio de Mail para recuperar la contraseña</t>
-  </si>
-  <si>
-    <t>Debería llegar un mail al correo que ingresas cuando entrar a "¿Olvidaste tu contraseña?". En cambio no sucede nada, y te redirecciona a la pantalla de Login</t>
-  </si>
-  <si>
-    <t>Entrar a la pantalla de login, y apretar "¿Olvidaste tu contraseña?" ingresar un mail y apretar en "Enviar"</t>
-  </si>
-  <si>
-    <t>Publicación</t>
-  </si>
-  <si>
-    <t>A la hora de entrar a mi cuenta desde el login, debería poder crear una publicación desde la pagina de home. En cambio no existe la opción</t>
-  </si>
-  <si>
-    <t>Una vez ingreso con mi cuenta, debería tener alguna opción para crear una publicacíon</t>
-  </si>
-  <si>
-    <t>Ingreso a Perfil</t>
-  </si>
-  <si>
-    <t>Desde el home yo quiero ver mi perfil apretando en la parte superior izquierda. En cambio al apretar en el icono no sucede nada, o dependiendo del intento se buguea la barra del encabezado y no aparece la opción</t>
-  </si>
-  <si>
-    <t>Ingresar al home, apretar en la parte superior derecha el icono de la personita</t>
-  </si>
-  <si>
-    <t>Comentar una publicación</t>
-  </si>
-  <si>
-    <t>Una vez que apretamos en el goblito de mensaje deberia abrirse el teclado o permitirnos comentar, en cambio cuando apretamos no sucede nada</t>
-  </si>
-  <si>
-    <t>En la pantalla de Home, vemos una publicacón y apretamos en el globito de mensaje</t>
-  </si>
-  <si>
-    <t>Etiquetar a un usuario</t>
-  </si>
-  <si>
-    <t>En la pantalla de Home cuando apreto en la etiqueta debería al apretar poder etiquetar otro usuario. En cambio cuando apreto no sucede nada</t>
-  </si>
-  <si>
-    <t>Entrar en la pantalla home, buscar una publicación y apretar en la etiqueta</t>
-  </si>
-  <si>
     <t>Apartado "Siguiendo"</t>
   </si>
   <si>
@@ -116,13 +112,136 @@
   </si>
   <si>
     <t>En la pantalla de home apretar los tres puntos que se encuentran e la esquina superior derecha</t>
+  </si>
+  <si>
+    <t>tres puntos</t>
+  </si>
+  <si>
+    <t>Al apretar en los 3 puntos que estan en perfil arriba a la derecha debería poder acceder a los ajustes, mis me gustas, etc, en cambio no sucede nada</t>
+  </si>
+  <si>
+    <t>1-Entrar a perfil 2- Apretar en los 3 puntos de la esquina superior derecha</t>
+  </si>
+  <si>
+    <t>Seguidos</t>
+  </si>
+  <si>
+    <t>Al apretar en seguido en perfil debería mostrame a las cuentas que yo sigo, en cambio no sucede nada</t>
+  </si>
+  <si>
+    <t>1-Entrar a perfil 2- Apretar en "Seguidos"</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Seguidores</t>
+  </si>
+  <si>
+    <t>Al apretar en seguidores en perfil debería mostrame a las cuentas que me siguen, en cambio no sucede nada</t>
+  </si>
+  <si>
+    <t>1-Entrar a perfil 2- Apretar en "Seguidores"</t>
+  </si>
+  <si>
+    <t>Lupa o Buscador</t>
+  </si>
+  <si>
+    <t>Al apretar en la lupa que se encuentra en perfil debería poder acceder al buscador, en cambio no sucede nada</t>
+  </si>
+  <si>
+    <t>1-Entrar a perfil 2- Apretar en la lupa de arriba a la derecha</t>
+  </si>
+  <si>
+    <t>Foto de perfil</t>
+  </si>
+  <si>
+    <t>Al apretar en editar perfil poner la url para subir una foto debería cambiarme la foto de perfil, sin embargo no sucede nada</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1-Entrar a perfil 2- Apretar en "Editar perfil" 3- Ingresar esta url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTEhBFW63t5oe94sDVMYmTeX8cp23fU5JHw3A&amp;s</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> 4- Guardar cambios</t>
+    </r>
+  </si>
+  <si>
+    <t>Tu cuenta</t>
+  </si>
+  <si>
+    <t>Al apretar los 3 pntos superiores y querer entrar a "Tu cuenta" no sucede nada, debería poder configurar cosas de mi cuenta de spaghetti</t>
+  </si>
+  <si>
+    <t>1- Apretar los 3 puntos arriba a la derecha en la pantalla de home 2- apretar en "Tu cuenta"</t>
+  </si>
+  <si>
+    <t>Ver me gusta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al apretar los 3 pntos superiores y querer entrar a "Ver me gusta" no sucede nada, debería poder ver mis me gustas </t>
+  </si>
+  <si>
+    <t>1- Apretar los 3 puntos arriba a la derecha en la pantalla de home 2- apretar en "Ver Me Gustas"</t>
+  </si>
+  <si>
+    <t>Ver Compartidos</t>
+  </si>
+  <si>
+    <t>Al apretar los 3 pntos superiores y querer entrar a "Ver Compartidos" no sucede nada, debería poder ver mis compartidos</t>
+  </si>
+  <si>
+    <t>1- Apretar los 3 puntos arriba a la derecha en la pantalla de home 2- apretar en "Ver Compartidos"</t>
+  </si>
+  <si>
+    <t>Privacidad y Seguridad</t>
+  </si>
+  <si>
+    <t>Al apretar los 3 pntos superiores y querer entrar a "Privacidad y Seguridad" no sucede nada, debería poder acceder a configurar la privacidad y seguridad de mi cuenta</t>
+  </si>
+  <si>
+    <t>1- Apretar los 3 puntos arriba a la derecha en la pantalla de home 2- apretar en "Privacidad y Seguridad"</t>
+  </si>
+  <si>
+    <t>Accesibilidad, Pantalla e Idiomas</t>
+  </si>
+  <si>
+    <t>Al apretar los 3 pntos superiores y querer entrar a "Accesibilidad, Pantalla e Idiomas" no sucede nada, debería poder acceder a configurar los parámetros de mi cuenta</t>
+  </si>
+  <si>
+    <t>1- Apretar los 3 puntos arriba a la derecha en la pantalla de home 2- apretar en "Accesibilidad, Pantalla e Idiomas"</t>
+  </si>
+  <si>
+    <t>Cerrar Sesion</t>
+  </si>
+  <si>
+    <t>Al apretar los 3 y querer cerrar la sesion de mi cuenta apretando "Cerrar Sesion" no sucede nada, debería dejarme cerrar sesion de mi cuenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -133,7 +252,22 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -155,25 +289,40 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,13 +538,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="50.13"/>
     <col customWidth="1" min="2" max="2" width="103.5"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,11 +572,11 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
@@ -449,11 +599,11 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3"/>
@@ -476,7 +626,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,11 +653,11 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3"/>
@@ -530,7 +680,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,11 +707,11 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
@@ -584,11 +734,11 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3"/>
@@ -611,7 +761,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -638,12 +788,12 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -665,7 +815,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,12 +842,12 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -719,12 +869,12 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -746,12 +896,12 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -773,12 +923,12 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -800,7 +950,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,12 +977,12 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -854,12 +1004,12 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -881,12 +1031,12 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -908,12 +1058,12 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -935,7 +1085,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,12 +1112,12 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -989,12 +1139,12 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1016,12 +1166,12 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1043,12 +1193,12 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1070,7 +1220,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,12 +1247,12 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1124,12 +1274,12 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
+      <c r="B28" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1151,12 +1301,12 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
+      <c r="B29" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1178,12 +1328,12 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
+      <c r="B30" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1205,7 +1355,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,11 +1382,11 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="3"/>
@@ -1259,11 +1409,11 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="3"/>
@@ -1286,11 +1436,11 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="3"/>
@@ -1313,12 +1463,12 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
+      <c r="B35" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1340,7 +1490,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,12 +1517,12 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>28</v>
+      <c r="B37" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1394,12 +1544,12 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>29</v>
+      <c r="B38" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1421,12 +1571,12 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>30</v>
+      <c r="B39" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1448,12 +1598,12 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>31</v>
+      <c r="B40" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1475,11 +1625,11 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="7">
         <v>9.0</v>
       </c>
       <c r="C41" s="3"/>
@@ -1502,11 +1652,11 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="3"/>
@@ -1529,11 +1679,11 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="3"/>
@@ -1556,11 +1706,11 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="3"/>
@@ -1583,12 +1733,12 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>31</v>
+      <c r="B45" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1610,9 +1760,13 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46">
-      <c r="A46" s="4"/>
-      <c r="B46" s="3"/>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>10.0</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1633,559 +1787,2076 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-    </row>
-    <row r="92">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="10"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="10"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="10"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="10"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="10"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="10"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="10"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="10"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="10"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="10"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="10"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="10"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="10"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="10"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="10"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="10"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="10"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="10"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="10"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="10"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="10"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="10"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="10"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="10"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="10"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="10"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B64"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>